--- a/Board3 - Shorty/Documents/Board3 BOM.xlsx
+++ b/Board3 - Shorty/Documents/Board3 BOM.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{946FB26F-87BC-4D57-B273-759554072BBF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8AA2B12-2E52-4A0A-800A-9C9C9E69890E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="11910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -793,12 +793,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -843,6 +837,12 @@
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1245,7 +1245,7 @@
   <dimension ref="A2:R47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1269,25 +1269,25 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18" ht="19.5" customHeight="1">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="D2" s="13" t="s">
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="D2" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
     </row>
     <row r="3" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
     </row>
     <row r="4" spans="1:18">
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
     </row>
     <row r="6" spans="1:18" ht="28.5" customHeight="1">
       <c r="A6" s="12" t="s">
@@ -1343,7 +1343,7 @@
       <c r="D7" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="E7" s="28" t="s">
+      <c r="E7" s="26" t="s">
         <v>67</v>
       </c>
       <c r="F7" s="3" t="s">
@@ -1352,17 +1352,17 @@
       <c r="G7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="27" t="s">
+      <c r="H7" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="27"/>
-      <c r="J7" s="30">
+      <c r="I7" s="25"/>
+      <c r="J7" s="28">
         <v>2.0099999999999998</v>
       </c>
       <c r="P7" s="6">
         <v>1</v>
       </c>
-      <c r="Q7" s="30">
+      <c r="Q7" s="28">
         <f>5*SUM(J7:J42)+77+J47</f>
         <v>595.85000000000014</v>
       </c>
@@ -1371,38 +1371,38 @@
       </c>
     </row>
     <row r="8" spans="1:18" ht="15">
-      <c r="A8" s="15">
+      <c r="A8" s="13">
         <v>2</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="15">
-        <v>1</v>
-      </c>
-      <c r="D8" s="16" t="s">
+      <c r="C8" s="13">
+        <v>1</v>
+      </c>
+      <c r="D8" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="15" t="s">
         <v>61</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="18"/>
-      <c r="J8" s="30">
+      <c r="I8" s="16"/>
+      <c r="J8" s="28">
         <v>3.52</v>
       </c>
       <c r="P8" s="6">
         <v>2</v>
       </c>
-      <c r="Q8" s="31">
+      <c r="Q8" s="29">
         <f>5*(SUM(J8:J18)+SUM(J29:J33))+SUM(J23:J24)+SUM(J34:J42)+J7+77+J47</f>
         <v>240.69</v>
       </c>
@@ -1423,7 +1423,7 @@
       <c r="D9" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="17" t="s">
         <v>25</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -1436,14 +1436,14 @@
         <v>4</v>
       </c>
       <c r="I9" s="2"/>
-      <c r="J9" s="30">
+      <c r="J9" s="28">
         <f>0.11*7</f>
         <v>0.77</v>
       </c>
       <c r="P9" s="6">
         <v>3</v>
       </c>
-      <c r="Q9" s="31">
+      <c r="Q9" s="29">
         <f>5*(SUM(J9:J19)+SUM(J30:J34))+77+J47</f>
         <v>156.75</v>
       </c>
@@ -1464,7 +1464,7 @@
       <c r="D10" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="17" t="s">
         <v>28</v>
       </c>
       <c r="F10" s="1" t="s">
@@ -1477,14 +1477,14 @@
         <v>4</v>
       </c>
       <c r="I10" s="2"/>
-      <c r="J10" s="30">
+      <c r="J10" s="28">
         <f>0.21*4</f>
         <v>0.84</v>
       </c>
       <c r="P10" s="6">
         <v>4</v>
       </c>
-      <c r="Q10" s="31">
+      <c r="Q10" s="29">
         <f>5*SUM(J9:J18,J23,J29:J36)+SUM(J38:J40,J42)+77+J47</f>
         <v>219.75</v>
       </c>
@@ -1505,7 +1505,7 @@
       <c r="D11" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="17" t="s">
         <v>30</v>
       </c>
       <c r="F11" s="1" t="s">
@@ -1518,14 +1518,14 @@
         <v>4</v>
       </c>
       <c r="I11" s="2"/>
-      <c r="J11" s="30">
+      <c r="J11" s="28">
         <f>0.26*5</f>
         <v>1.3</v>
       </c>
       <c r="P11" s="6">
         <v>5</v>
       </c>
-      <c r="Q11" s="31">
+      <c r="Q11" s="29">
         <f>35+J43</f>
         <v>135.37</v>
       </c>
@@ -1546,7 +1546,7 @@
       <c r="D12" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="17" t="s">
         <v>34</v>
       </c>
       <c r="F12" s="1" t="s">
@@ -1559,7 +1559,7 @@
         <v>4</v>
       </c>
       <c r="I12" s="2"/>
-      <c r="J12" s="30">
+      <c r="J12" s="28">
         <v>0.11</v>
       </c>
     </row>
@@ -1576,7 +1576,7 @@
       <c r="D13" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="17" t="s">
         <v>37</v>
       </c>
       <c r="F13" s="1" t="s">
@@ -1589,7 +1589,7 @@
         <v>4</v>
       </c>
       <c r="I13" s="2"/>
-      <c r="J13" s="30">
+      <c r="J13" s="28">
         <v>0.13</v>
       </c>
     </row>
@@ -1606,10 +1606,10 @@
       <c r="D14" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="20" t="s">
+      <c r="F14" s="18" t="s">
         <v>42</v>
       </c>
       <c r="G14" s="4" t="s">
@@ -1619,7 +1619,7 @@
         <v>4</v>
       </c>
       <c r="I14" s="2"/>
-      <c r="J14" s="30">
+      <c r="J14" s="28">
         <v>0.36</v>
       </c>
     </row>
@@ -1636,10 +1636,10 @@
       <c r="D15" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="E15" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="20" t="s">
+      <c r="F15" s="18" t="s">
         <v>45</v>
       </c>
       <c r="G15" s="4" t="s">
@@ -1649,38 +1649,38 @@
         <v>4</v>
       </c>
       <c r="I15" s="2"/>
-      <c r="J15" s="30">
+      <c r="J15" s="28">
         <f>2*0.1</f>
         <v>0.2</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="15">
-      <c r="A16" s="15">
+      <c r="A16" s="13">
         <v>10</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="15">
-        <v>1</v>
-      </c>
-      <c r="D16" s="16" t="s">
+      <c r="C16" s="13">
+        <v>1</v>
+      </c>
+      <c r="D16" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="E16" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="F16" s="23" t="s">
+      <c r="F16" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="G16" s="21" t="s">
+      <c r="G16" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="H16" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="I16" s="18"/>
-      <c r="J16" s="30">
+      <c r="H16" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="I16" s="16"/>
+      <c r="J16" s="28">
         <v>0.44</v>
       </c>
     </row>
@@ -1697,10 +1697,10 @@
       <c r="D17" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="E17" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="F17" s="20" t="s">
+      <c r="F17" s="18" t="s">
         <v>54</v>
       </c>
       <c r="G17" s="4" t="s">
@@ -1710,7 +1710,7 @@
         <v>4</v>
       </c>
       <c r="I17" s="2"/>
-      <c r="J17" s="30">
+      <c r="J17" s="28">
         <f>4*0.49</f>
         <v>1.96</v>
       </c>
@@ -1728,7 +1728,7 @@
       <c r="D18" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E18" s="19" t="s">
+      <c r="E18" s="17" t="s">
         <v>58</v>
       </c>
       <c r="F18" s="1" t="s">
@@ -1741,7 +1741,7 @@
         <v>4</v>
       </c>
       <c r="I18" s="2"/>
-      <c r="J18" s="30">
+      <c r="J18" s="28">
         <v>0.65</v>
       </c>
     </row>
@@ -1755,23 +1755,23 @@
       <c r="C19" s="9">
         <v>1</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="D19" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="E19" s="25" t="s">
+      <c r="E19" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="F19" s="26" t="s">
+      <c r="F19" s="24" t="s">
         <v>64</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="H19" s="27" t="s">
+      <c r="H19" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="I19" s="27"/>
-      <c r="J19" s="30"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="28"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="9">
@@ -1783,23 +1783,23 @@
       <c r="C20" s="9">
         <v>1</v>
       </c>
-      <c r="D20" s="25" t="s">
+      <c r="D20" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="E20" s="25" t="s">
+      <c r="E20" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="F20" s="26" t="s">
+      <c r="F20" s="24" t="s">
         <v>72</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="H20" s="27" t="s">
+      <c r="H20" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="I20" s="27"/>
-      <c r="J20" s="30"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="28"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="9">
@@ -1811,23 +1811,23 @@
       <c r="C21" s="9">
         <v>1</v>
       </c>
-      <c r="D21" s="25" t="s">
+      <c r="D21" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="E21" s="25" t="s">
+      <c r="E21" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="F21" s="26" t="s">
+      <c r="F21" s="24" t="s">
         <v>73</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="H21" s="27" t="s">
+      <c r="H21" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="I21" s="27"/>
-      <c r="J21" s="30"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="28"/>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="9">
@@ -1839,23 +1839,23 @@
       <c r="C22" s="9">
         <v>1</v>
       </c>
-      <c r="D22" s="25" t="s">
+      <c r="D22" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="E22" s="25" t="s">
+      <c r="E22" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="F22" s="26" t="s">
+      <c r="F22" s="24" t="s">
         <v>72</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="H22" s="27" t="s">
+      <c r="H22" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="I22" s="27"/>
-      <c r="J22" s="30"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="28"/>
     </row>
     <row r="23" spans="1:10" ht="15">
       <c r="A23" s="7">
@@ -1870,7 +1870,7 @@
       <c r="D23" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="E23" s="29">
+      <c r="E23" s="27">
         <v>693072010801</v>
       </c>
       <c r="F23" s="1" t="s">
@@ -1883,7 +1883,7 @@
         <v>4</v>
       </c>
       <c r="I23" s="2"/>
-      <c r="J23" s="30">
+      <c r="J23" s="28">
         <v>3.2</v>
       </c>
     </row>
@@ -1900,7 +1900,7 @@
       <c r="D24" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="E24" s="28">
+      <c r="E24" s="26">
         <v>733910070</v>
       </c>
       <c r="F24" s="3" t="s">
@@ -1909,11 +1909,11 @@
       <c r="G24" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="H24" s="27" t="s">
+      <c r="H24" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="I24" s="27"/>
-      <c r="J24" s="30">
+      <c r="I24" s="25"/>
+      <c r="J24" s="28">
         <f>2.84*2</f>
         <v>5.68</v>
       </c>
@@ -1928,23 +1928,23 @@
       <c r="C25" s="9">
         <v>1</v>
       </c>
-      <c r="D25" s="25" t="s">
+      <c r="D25" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="E25" s="25" t="s">
+      <c r="E25" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="F25" s="26" t="s">
+      <c r="F25" s="24" t="s">
         <v>87</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="H25" s="27" t="s">
+      <c r="H25" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="I25" s="27"/>
-      <c r="J25" s="30"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="28"/>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="9">
@@ -1956,23 +1956,23 @@
       <c r="C26" s="9">
         <v>1</v>
       </c>
-      <c r="D26" s="25" t="s">
+      <c r="D26" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="E26" s="25" t="s">
+      <c r="E26" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="F26" s="26" t="s">
+      <c r="F26" s="24" t="s">
         <v>88</v>
       </c>
       <c r="G26" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="H26" s="27" t="s">
+      <c r="H26" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="I26" s="27"/>
-      <c r="J26" s="30"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="28"/>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="9">
@@ -1984,23 +1984,23 @@
       <c r="C27" s="9">
         <v>1</v>
       </c>
-      <c r="D27" s="25" t="s">
+      <c r="D27" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="E27" s="25" t="s">
+      <c r="E27" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="F27" s="26" t="s">
+      <c r="F27" s="24" t="s">
         <v>89</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="H27" s="27" t="s">
+      <c r="H27" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="I27" s="27"/>
-      <c r="J27" s="30"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="28"/>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="9">
@@ -2012,23 +2012,23 @@
       <c r="C28" s="9">
         <v>1</v>
       </c>
-      <c r="D28" s="25" t="s">
+      <c r="D28" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="E28" s="25" t="s">
+      <c r="E28" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="F28" s="26" t="s">
+      <c r="F28" s="24" t="s">
         <v>89</v>
       </c>
       <c r="G28" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="H28" s="27" t="s">
+      <c r="H28" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="I28" s="27"/>
-      <c r="J28" s="30"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="28"/>
     </row>
     <row r="29" spans="1:10" ht="15">
       <c r="A29" s="7">
@@ -2043,7 +2043,7 @@
       <c r="D29" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="E29" s="19" t="s">
+      <c r="E29" s="17" t="s">
         <v>94</v>
       </c>
       <c r="F29" s="1" t="s">
@@ -2056,7 +2056,7 @@
         <v>4</v>
       </c>
       <c r="I29" s="2"/>
-      <c r="J29" s="30">
+      <c r="J29" s="28">
         <v>0.1</v>
       </c>
     </row>
@@ -2073,7 +2073,7 @@
       <c r="D30" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E30" s="19" t="s">
+      <c r="E30" s="17" t="s">
         <v>97</v>
       </c>
       <c r="F30" s="1" t="s">
@@ -2086,7 +2086,7 @@
         <v>4</v>
       </c>
       <c r="I30" s="2"/>
-      <c r="J30" s="30">
+      <c r="J30" s="28">
         <f>2*0.1</f>
         <v>0.2</v>
       </c>
@@ -2104,7 +2104,7 @@
       <c r="D31" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="E31" s="19" t="s">
+      <c r="E31" s="17" t="s">
         <v>99</v>
       </c>
       <c r="F31" s="1" t="s">
@@ -2117,7 +2117,7 @@
         <v>4</v>
       </c>
       <c r="I31" s="2"/>
-      <c r="J31" s="30">
+      <c r="J31" s="28">
         <v>0.1</v>
       </c>
     </row>
@@ -2134,7 +2134,7 @@
       <c r="D32" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="E32" s="19" t="s">
+      <c r="E32" s="17" t="s">
         <v>103</v>
       </c>
       <c r="F32" s="1" t="s">
@@ -2147,7 +2147,7 @@
         <v>4</v>
       </c>
       <c r="I32" s="2"/>
-      <c r="J32" s="30">
+      <c r="J32" s="28">
         <f>5*0.1</f>
         <v>0.5</v>
       </c>
@@ -2165,7 +2165,7 @@
       <c r="D33" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E33" s="19" t="s">
+      <c r="E33" s="17" t="s">
         <v>106</v>
       </c>
       <c r="F33" s="1" t="s">
@@ -2178,7 +2178,7 @@
         <v>4</v>
       </c>
       <c r="I33" s="2"/>
-      <c r="J33" s="30">
+      <c r="J33" s="28">
         <f>4*0.1</f>
         <v>0.4</v>
       </c>
@@ -2196,7 +2196,7 @@
       <c r="D34" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="E34" s="19" t="s">
+      <c r="E34" s="17" t="s">
         <v>117</v>
       </c>
       <c r="F34" s="1" t="s">
@@ -2209,7 +2209,7 @@
         <v>4</v>
       </c>
       <c r="I34" s="2"/>
-      <c r="J34" s="30">
+      <c r="J34" s="28">
         <v>4.59</v>
       </c>
     </row>
@@ -2226,7 +2226,7 @@
       <c r="D35" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="E35" s="19" t="s">
+      <c r="E35" s="17" t="s">
         <v>121</v>
       </c>
       <c r="F35" s="1" t="s">
@@ -2239,7 +2239,7 @@
         <v>4</v>
       </c>
       <c r="I35" s="2"/>
-      <c r="J35" s="30">
+      <c r="J35" s="28">
         <v>3.22</v>
       </c>
     </row>
@@ -2256,7 +2256,7 @@
       <c r="D36" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="E36" s="19" t="s">
+      <c r="E36" s="17" t="s">
         <v>125</v>
       </c>
       <c r="F36" s="1" t="s">
@@ -2269,7 +2269,7 @@
         <v>4</v>
       </c>
       <c r="I36" s="2"/>
-      <c r="J36" s="30">
+      <c r="J36" s="28">
         <v>0.53</v>
       </c>
     </row>
@@ -2286,7 +2286,7 @@
       <c r="D37" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="E37" s="28" t="s">
+      <c r="E37" s="26" t="s">
         <v>128</v>
       </c>
       <c r="F37" s="3" t="s">
@@ -2295,11 +2295,11 @@
       <c r="G37" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="H37" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="I37" s="27"/>
-      <c r="J37" s="30">
+      <c r="H37" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="I37" s="25"/>
+      <c r="J37" s="28">
         <v>27</v>
       </c>
       <c r="K37" s="6" t="s">
@@ -2319,7 +2319,7 @@
       <c r="D38" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="E38" s="19" t="s">
+      <c r="E38" s="17" t="s">
         <v>134</v>
       </c>
       <c r="F38" s="1" t="s">
@@ -2332,7 +2332,7 @@
         <v>4</v>
       </c>
       <c r="I38" s="2"/>
-      <c r="J38" s="30">
+      <c r="J38" s="28">
         <v>8.68</v>
       </c>
     </row>
@@ -2349,7 +2349,7 @@
       <c r="D39" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="E39" s="19" t="s">
+      <c r="E39" s="17" t="s">
         <v>138</v>
       </c>
       <c r="F39" s="1" t="s">
@@ -2362,7 +2362,7 @@
         <v>4</v>
       </c>
       <c r="I39" s="2"/>
-      <c r="J39" s="30">
+      <c r="J39" s="28">
         <v>5.8</v>
       </c>
     </row>
@@ -2379,7 +2379,7 @@
       <c r="D40" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="E40" s="19" t="s">
+      <c r="E40" s="17" t="s">
         <v>144</v>
       </c>
       <c r="F40" s="1" t="s">
@@ -2392,7 +2392,7 @@
         <v>4</v>
       </c>
       <c r="I40" s="2"/>
-      <c r="J40" s="30">
+      <c r="J40" s="28">
         <v>12.07</v>
       </c>
     </row>
@@ -2409,7 +2409,7 @@
       <c r="D41" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="E41" s="19" t="s">
+      <c r="E41" s="17" t="s">
         <v>149</v>
       </c>
       <c r="F41" s="1" t="s">
@@ -2422,7 +2422,7 @@
         <v>4</v>
       </c>
       <c r="I41" s="2"/>
-      <c r="J41" s="30">
+      <c r="J41" s="28">
         <v>14.81</v>
       </c>
     </row>
@@ -2439,7 +2439,7 @@
       <c r="D42" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="E42" s="19" t="s">
+      <c r="E42" s="17" t="s">
         <v>154</v>
       </c>
       <c r="F42" s="1" t="s">
@@ -2452,7 +2452,7 @@
         <v>4</v>
       </c>
       <c r="I42" s="2"/>
-      <c r="J42" s="30">
+      <c r="J42" s="28">
         <v>1.2</v>
       </c>
     </row>
@@ -2466,7 +2466,7 @@
       <c r="G43"/>
       <c r="H43"/>
       <c r="I43"/>
-      <c r="J43" s="31">
+      <c r="J43" s="29">
         <f>SUM(J7:J42)</f>
         <v>100.37000000000002</v>
       </c>

--- a/Board3 - Shorty/Documents/Board3 BOM.xlsx
+++ b/Board3 - Shorty/Documents/Board3 BOM.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8AA2B12-2E52-4A0A-800A-9C9C9E69890E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{261AD875-574B-4C59-A34F-3FD17432DD08}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="11910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1242,10 +1242,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:R47"/>
+  <dimension ref="A2:R52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1485,8 +1485,8 @@
         <v>4</v>
       </c>
       <c r="Q10" s="29">
-        <f>5*SUM(J9:J18,J23,J29:J36)+SUM(J38:J40,J42)+77+J47</f>
-        <v>219.75</v>
+        <f>5*SUM(J7:J18,J23,J29:J36)+SUM(J38:J40,J42)+J37+J41+J24+77+J47</f>
+        <v>294.89</v>
       </c>
       <c r="R10" s="6" t="s">
         <v>167</v>
@@ -2491,6 +2491,11 @@
       </c>
       <c r="J47" s="6">
         <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="9:9">
+      <c r="I52" s="6">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Board3 - Shorty/Documents/Board3 BOM.xlsx
+++ b/Board3 - Shorty/Documents/Board3 BOM.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{261AD875-574B-4C59-A34F-3FD17432DD08}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19FA97A1-40A2-4CA5-A679-6D1745D77715}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="11910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -609,7 +609,7 @@
     <t>Cost of PCB</t>
   </si>
   <si>
-    <t>All passives and microcontrollers and sensors installed. No RF or GPS components installed</t>
+    <t>All passives and microcontrollers and sensors installed. LoRa and GPS components installed on one</t>
   </si>
 </sst>
 </file>
@@ -1244,8 +1244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:R52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1264,7 +1264,7 @@
     <col min="15" max="15" width="9" style="6" customWidth="1"/>
     <col min="16" max="16" width="20.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10" style="6" customWidth="1"/>
-    <col min="18" max="18" width="92.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="98.140625" style="6" bestFit="1" customWidth="1"/>
     <col min="19" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
@@ -1485,8 +1485,8 @@
         <v>4</v>
       </c>
       <c r="Q10" s="29">
-        <f>5*SUM(J7:J18,J23,J29:J36)+SUM(J38:J40,J42)+J37+J41+J24+77+J47</f>
-        <v>294.89</v>
+        <f>5*SUM(J9:J18,J23,J29:J36)+SUM(J38:J40,J42)+J37+J41+J24+J8+77+J47</f>
+        <v>270.76</v>
       </c>
       <c r="R10" s="6" t="s">
         <v>167</v>

--- a/Board3 - Shorty/Documents/Board3 BOM.xlsx
+++ b/Board3 - Shorty/Documents/Board3 BOM.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19FA97A1-40A2-4CA5-A679-6D1745D77715}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8531C651-5260-44A5-A901-8FACA81886B2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="11910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="11910" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="172">
   <si>
     <t>Item #</t>
   </si>
@@ -189,9 +189,6 @@
     <t>Samsung</t>
   </si>
   <si>
-    <t>C1,C5,C7,C9,C10,C12,C13</t>
-  </si>
-  <si>
     <t>CL21C220JB61PNC</t>
   </si>
   <si>
@@ -456,9 +453,6 @@
     <t>Max Power</t>
   </si>
   <si>
-    <t>C4,C6,C11,C20,C21</t>
-  </si>
-  <si>
     <t>LT1117CST-3.3#TRPBF</t>
   </si>
   <si>
@@ -610,6 +604,24 @@
   </si>
   <si>
     <t>All passives and microcontrollers and sensors installed. LoRa and GPS components installed on one</t>
+  </si>
+  <si>
+    <t>C1,C5,C7,C9,C10,C13</t>
+  </si>
+  <si>
+    <t>C4,C6,C11,C12,C20,C21</t>
+  </si>
+  <si>
+    <t>J13,J14</t>
+  </si>
+  <si>
+    <t>2.54mm Pitch Male Header 1x1</t>
+  </si>
+  <si>
+    <t>1 POS TH</t>
+  </si>
+  <si>
+    <t>Danny's Option</t>
   </si>
 </sst>
 </file>
@@ -755,7 +767,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -799,9 +811,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -829,9 +838,6 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="12" fontId="9" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -843,6 +849,13 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="12" fontId="9" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1242,10 +1255,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:R52"/>
+  <dimension ref="A2:R53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P36" sqref="P36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1269,25 +1282,25 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18" ht="19.5" customHeight="1">
-      <c r="A2" s="31"/>
-      <c r="B2" s="31"/>
-      <c r="D2" s="30" t="s">
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="D2" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
     </row>
     <row r="3" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
     </row>
     <row r="4" spans="1:18">
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
     </row>
     <row r="6" spans="1:18" ht="28.5" customHeight="1">
       <c r="A6" s="12" t="s">
@@ -1318,16 +1331,16 @@
         <v>13</v>
       </c>
       <c r="J6" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="P6" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q6" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="P6" s="12" t="s">
+      <c r="R6" s="12" t="s">
         <v>159</v>
-      </c>
-      <c r="Q6" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="R6" s="12" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="15">
@@ -1341,73 +1354,73 @@
         <v>1</v>
       </c>
       <c r="D7" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="F7" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="25" t="s">
+      <c r="H7" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="25"/>
-      <c r="J7" s="28">
+      <c r="I7" s="24"/>
+      <c r="J7" s="26">
         <v>2.0099999999999998</v>
       </c>
       <c r="P7" s="6">
         <v>1</v>
       </c>
-      <c r="Q7" s="28">
-        <f>5*SUM(J7:J42)+77+J47</f>
+      <c r="Q7" s="26">
+        <f>5*SUM(J7:J43)+77+J48</f>
         <v>595.85000000000014</v>
       </c>
       <c r="R7" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="15">
-      <c r="A8" s="13">
+      <c r="A8" s="9">
         <v>2</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="13">
-        <v>1</v>
-      </c>
-      <c r="D8" s="14" t="s">
+      <c r="C8" s="9">
+        <v>1</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I8" s="16"/>
-      <c r="J8" s="28">
+      <c r="G8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="30"/>
+      <c r="J8" s="26">
         <v>3.52</v>
       </c>
       <c r="P8" s="6">
         <v>2</v>
       </c>
-      <c r="Q8" s="29">
-        <f>5*(SUM(J8:J18)+SUM(J29:J33))+SUM(J23:J24)+SUM(J34:J42)+J7+77+J47</f>
+      <c r="Q8" s="27">
+        <f>5*(SUM(J8:J18)+SUM(J30:J34))+SUM(J23:J24)+SUM(J35:J43)+J7+77+J48</f>
         <v>240.69</v>
       </c>
       <c r="R8" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="15">
@@ -1415,7 +1428,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>27</v>
+        <v>166</v>
       </c>
       <c r="C9" s="7">
         <v>7</v>
@@ -1423,7 +1436,7 @@
       <c r="D9" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="16" t="s">
         <v>25</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -1436,19 +1449,19 @@
         <v>4</v>
       </c>
       <c r="I9" s="2"/>
-      <c r="J9" s="28">
+      <c r="J9" s="26">
         <f>0.11*7</f>
         <v>0.77</v>
       </c>
       <c r="P9" s="6">
         <v>3</v>
       </c>
-      <c r="Q9" s="29">
-        <f>5*(SUM(J9:J19)+SUM(J30:J34))+77+J47</f>
+      <c r="Q9" s="27">
+        <f>5*(SUM(J9:J19)+SUM(J31:J35))+77+J48</f>
         <v>156.75</v>
       </c>
       <c r="R9" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="15">
@@ -1456,7 +1469,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C10" s="7">
         <v>4</v>
@@ -1464,11 +1477,11 @@
       <c r="D10" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="G10" s="1">
         <v>805</v>
@@ -1477,19 +1490,19 @@
         <v>4</v>
       </c>
       <c r="I10" s="2"/>
-      <c r="J10" s="28">
+      <c r="J10" s="26">
         <f>0.21*4</f>
         <v>0.84</v>
       </c>
       <c r="P10" s="6">
         <v>4</v>
       </c>
-      <c r="Q10" s="29">
-        <f>5*SUM(J9:J18,J23,J29:J36)+SUM(J38:J40,J42)+J37+J41+J24+J8+77+J47</f>
+      <c r="Q10" s="27">
+        <f>5*SUM(J9:J18,J23,J30:J37)+SUM(J39:J41,J43)+J38+J42+J24+J8+77+J48</f>
         <v>270.76</v>
       </c>
       <c r="R10" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="15">
@@ -1497,7 +1510,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>116</v>
+        <v>167</v>
       </c>
       <c r="C11" s="7">
         <v>5</v>
@@ -1505,11 +1518,11 @@
       <c r="D11" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="G11" s="1">
         <v>1206</v>
@@ -1518,19 +1531,19 @@
         <v>4</v>
       </c>
       <c r="I11" s="2"/>
-      <c r="J11" s="28">
+      <c r="J11" s="26">
         <f>0.26*5</f>
         <v>1.3</v>
       </c>
       <c r="P11" s="6">
         <v>5</v>
       </c>
-      <c r="Q11" s="29">
-        <f>35+J43</f>
+      <c r="Q11" s="27">
+        <f>35+J44</f>
         <v>135.37</v>
       </c>
       <c r="R11" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="15">
@@ -1538,19 +1551,19 @@
         <v>6</v>
       </c>
       <c r="B12" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="7">
+        <v>1</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="7">
-        <v>1</v>
-      </c>
-      <c r="D12" s="8" t="s">
+      <c r="E12" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="F12" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>6</v>
@@ -1559,8 +1572,18 @@
         <v>4</v>
       </c>
       <c r="I12" s="2"/>
-      <c r="J12" s="28">
+      <c r="J12" s="26">
         <v>0.11</v>
+      </c>
+      <c r="P12" s="6">
+        <v>6</v>
+      </c>
+      <c r="Q12" s="27">
+        <f>5*(SUM(J9:J18)+SUM(J30:J34)+J36+J37+J43)+J48+77</f>
+        <v>159.05000000000001</v>
+      </c>
+      <c r="R12" s="6" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="15">
@@ -1568,19 +1591,19 @@
         <v>7</v>
       </c>
       <c r="B13" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="7">
+        <v>1</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="7">
-        <v>1</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="17" t="s">
+      <c r="F13" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>6</v>
@@ -1589,7 +1612,7 @@
         <v>4</v>
       </c>
       <c r="I13" s="2"/>
-      <c r="J13" s="28">
+      <c r="J13" s="26">
         <v>0.13</v>
       </c>
     </row>
@@ -1598,19 +1621,19 @@
         <v>8</v>
       </c>
       <c r="B14" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="7">
+        <v>1</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="7">
-        <v>1</v>
-      </c>
-      <c r="D14" s="8" t="s">
+      <c r="E14" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="17" t="s">
+      <c r="F14" s="17" t="s">
         <v>41</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>42</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>6</v>
@@ -1619,7 +1642,7 @@
         <v>4</v>
       </c>
       <c r="I14" s="2"/>
-      <c r="J14" s="28">
+      <c r="J14" s="26">
         <v>0.36</v>
       </c>
     </row>
@@ -1628,7 +1651,7 @@
         <v>9</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C15" s="7">
         <v>2</v>
@@ -1636,11 +1659,11 @@
       <c r="D15" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="17" t="s">
+      <c r="E15" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="17" t="s">
         <v>44</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>45</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>6</v>
@@ -1649,7 +1672,7 @@
         <v>4</v>
       </c>
       <c r="I15" s="2"/>
-      <c r="J15" s="28">
+      <c r="J15" s="26">
         <f>2*0.1</f>
         <v>0.2</v>
       </c>
@@ -1659,28 +1682,28 @@
         <v>10</v>
       </c>
       <c r="B16" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="13">
+        <v>1</v>
+      </c>
+      <c r="D16" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="13">
-        <v>1</v>
-      </c>
-      <c r="D16" s="14" t="s">
+      <c r="E16" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="F16" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="F16" s="21" t="s">
+      <c r="G16" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="G16" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="H16" s="22" t="s">
+      <c r="H16" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="I16" s="16"/>
-      <c r="J16" s="28">
+      <c r="I16" s="15"/>
+      <c r="J16" s="26">
         <v>0.44</v>
       </c>
     </row>
@@ -1689,28 +1712,28 @@
         <v>11</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C17" s="7">
         <v>4</v>
       </c>
       <c r="D17" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="F17" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="F17" s="18" t="s">
+      <c r="G17" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>4</v>
       </c>
       <c r="I17" s="2"/>
-      <c r="J17" s="28">
+      <c r="J17" s="26">
         <f>4*0.49</f>
         <v>1.96</v>
       </c>
@@ -1720,28 +1743,28 @@
         <v>12</v>
       </c>
       <c r="B18" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="7">
+        <v>1</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="7">
-        <v>1</v>
-      </c>
-      <c r="D18" s="8" t="s">
+      <c r="E18" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="E18" s="17" t="s">
+      <c r="F18" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="G18" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>60</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>4</v>
       </c>
       <c r="I18" s="2"/>
-      <c r="J18" s="28">
+      <c r="J18" s="26">
         <v>0.65</v>
       </c>
     </row>
@@ -1750,140 +1773,140 @@
         <v>13</v>
       </c>
       <c r="B19" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="9">
+        <v>1</v>
+      </c>
+      <c r="D19" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="C19" s="9">
-        <v>1</v>
-      </c>
-      <c r="D19" s="23" t="s">
+      <c r="E19" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="E19" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="F19" s="24" t="s">
+      <c r="G19" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="G19" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="H19" s="25" t="s">
+      <c r="H19" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="I19" s="25"/>
-      <c r="J19" s="28"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="26"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="9">
         <v>14</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C20" s="9">
         <v>1</v>
       </c>
-      <c r="D20" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="E20" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="F20" s="24" t="s">
-        <v>72</v>
+      <c r="D20" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>71</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="H20" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="H20" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="I20" s="25"/>
-      <c r="J20" s="28"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="26"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="9">
         <v>15</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C21" s="9">
         <v>1</v>
       </c>
-      <c r="D21" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="E21" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="F21" s="24" t="s">
-        <v>73</v>
+      <c r="D21" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>72</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="H21" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="H21" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="I21" s="25"/>
-      <c r="J21" s="28"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="26"/>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="9">
         <v>16</v>
       </c>
       <c r="B22" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="9">
+        <v>1</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="C22" s="9">
-        <v>1</v>
-      </c>
-      <c r="D22" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="E22" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="F22" s="24" t="s">
-        <v>72</v>
-      </c>
       <c r="G22" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H22" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="I22" s="24"/>
+      <c r="J22" s="26"/>
+    </row>
+    <row r="23" spans="1:10" ht="15">
+      <c r="A23" s="9">
+        <v>17</v>
+      </c>
+      <c r="B23" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="H22" s="25" t="s">
+      <c r="C23" s="9">
+        <v>1</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E23" s="31">
+        <v>693072010801</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="H23" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="I22" s="25"/>
-      <c r="J22" s="28"/>
-    </row>
-    <row r="23" spans="1:10" ht="15">
-      <c r="A23" s="7">
-        <v>17</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C23" s="7">
-        <v>1</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="E23" s="27">
-        <v>693072010801</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I23" s="2"/>
-      <c r="J23" s="28">
+      <c r="I23" s="24"/>
+      <c r="J23" s="26">
         <v>3.2</v>
       </c>
     </row>
@@ -1892,28 +1915,28 @@
         <v>18</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C24" s="9">
         <v>2</v>
       </c>
       <c r="D24" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E24" s="25">
+        <v>733910070</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E24" s="26">
-        <v>733910070</v>
-      </c>
-      <c r="F24" s="3" t="s">
+      <c r="G24" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="G24" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="H24" s="25" t="s">
+      <c r="H24" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="I24" s="25"/>
-      <c r="J24" s="28">
+      <c r="I24" s="24"/>
+      <c r="J24" s="26">
         <f>2.84*2</f>
         <v>5.68</v>
       </c>
@@ -1923,161 +1946,159 @@
         <v>19</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C25" s="9">
         <v>1</v>
       </c>
-      <c r="D25" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="E25" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="F25" s="24" t="s">
-        <v>87</v>
+      <c r="D25" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="F25" s="23" t="s">
+        <v>86</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="H25" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="H25" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="I25" s="25"/>
-      <c r="J25" s="28"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="26"/>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="9">
         <v>20</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C26" s="9">
         <v>1</v>
       </c>
-      <c r="D26" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="E26" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="F26" s="24" t="s">
-        <v>88</v>
+      <c r="D26" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="F26" s="23" t="s">
+        <v>87</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="H26" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="H26" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="I26" s="25"/>
-      <c r="J26" s="28"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="26"/>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="9">
         <v>21</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C27" s="9">
         <v>1</v>
       </c>
-      <c r="D27" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="E27" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="F27" s="24" t="s">
-        <v>89</v>
+      <c r="D27" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="F27" s="23" t="s">
+        <v>88</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="H27" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="H27" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="I27" s="25"/>
-      <c r="J27" s="28"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="26"/>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="9">
         <v>22</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C28" s="9">
         <v>1</v>
       </c>
-      <c r="D28" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="E28" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="F28" s="24" t="s">
-        <v>89</v>
+      <c r="D28" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="E28" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="F28" s="23" t="s">
+        <v>88</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="H28" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="H28" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="I28" s="25"/>
-      <c r="J28" s="28"/>
-    </row>
-    <row r="29" spans="1:10" ht="15">
-      <c r="A29" s="7">
+      <c r="I28" s="24"/>
+      <c r="J28" s="26"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="9">
         <v>23</v>
       </c>
-      <c r="B29" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C29" s="7">
-        <v>1</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="E29" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I29" s="2"/>
-      <c r="J29" s="28">
-        <v>0.1</v>
-      </c>
+      <c r="B29" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="C29" s="9">
+        <v>2</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="E29" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="F29" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="H29" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="I29" s="24"/>
+      <c r="J29" s="26"/>
     </row>
     <row r="30" spans="1:10" ht="15">
       <c r="A30" s="7">
         <v>24</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C30" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E30" s="17" t="s">
-        <v>97</v>
+        <v>92</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>93</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>6</v>
@@ -2086,9 +2107,8 @@
         <v>4</v>
       </c>
       <c r="I30" s="2"/>
-      <c r="J30" s="28">
-        <f>2*0.1</f>
-        <v>0.2</v>
+      <c r="J30" s="26">
+        <v>0.1</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="15">
@@ -2096,19 +2116,19 @@
         <v>25</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C31" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="E31" s="17" t="s">
-        <v>99</v>
+        <v>32</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>96</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>6</v>
@@ -2117,8 +2137,9 @@
         <v>4</v>
       </c>
       <c r="I31" s="2"/>
-      <c r="J31" s="28">
-        <v>0.1</v>
+      <c r="J31" s="26">
+        <f>2*0.1</f>
+        <v>0.2</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="15">
@@ -2126,19 +2147,19 @@
         <v>26</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C32" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="E32" s="17" t="s">
-        <v>103</v>
+        <v>92</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>98</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>6</v>
@@ -2147,9 +2168,8 @@
         <v>4</v>
       </c>
       <c r="I32" s="2"/>
-      <c r="J32" s="28">
-        <f>5*0.1</f>
-        <v>0.5</v>
+      <c r="J32" s="26">
+        <v>0.1</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="15">
@@ -2157,19 +2177,19 @@
         <v>27</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C33" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E33" s="17" t="s">
-        <v>106</v>
+        <v>92</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>102</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>6</v>
@@ -2178,9 +2198,9 @@
         <v>4</v>
       </c>
       <c r="I33" s="2"/>
-      <c r="J33" s="28">
-        <f>4*0.1</f>
-        <v>0.4</v>
+      <c r="J33" s="26">
+        <f>5*0.1</f>
+        <v>0.5</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="15">
@@ -2188,59 +2208,60 @@
         <v>28</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>3</v>
+        <v>104</v>
       </c>
       <c r="C34" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="E34" s="17" t="s">
-        <v>117</v>
+        <v>32</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>105</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>108</v>
+        <v>6</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>4</v>
       </c>
       <c r="I34" s="2"/>
-      <c r="J34" s="28">
+      <c r="J34" s="26">
+        <f>4*0.1</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="15">
+      <c r="A35" s="9">
+        <v>29</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="9">
+        <v>1</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="E35" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="H35" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="I35" s="24"/>
+      <c r="J35" s="32">
         <v>4.59</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="15">
-      <c r="A35" s="7">
-        <v>29</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="C35" s="7">
-        <v>1</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="E35" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I35" s="2"/>
-      <c r="J35" s="28">
-        <v>3.22</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15">
@@ -2248,253 +2269,283 @@
         <v>30</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>5</v>
+        <v>118</v>
       </c>
       <c r="C36" s="7">
         <v>1</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="E36" s="17" t="s">
-        <v>125</v>
+        <v>122</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>119</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>4</v>
       </c>
       <c r="I36" s="2"/>
-      <c r="J36" s="28">
+      <c r="J36" s="26">
+        <v>3.22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="15">
+      <c r="A37" s="7">
+        <v>31</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="7">
+        <v>1</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I37" s="2"/>
+      <c r="J37" s="26">
         <v>0.53</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="15">
-      <c r="A37" s="9">
-        <v>31</v>
-      </c>
-      <c r="B37" s="10" t="s">
+    <row r="38" spans="1:11" ht="15">
+      <c r="A38" s="9">
+        <v>32</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C38" s="9">
+        <v>1</v>
+      </c>
+      <c r="D38" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="C37" s="9">
-        <v>1</v>
-      </c>
-      <c r="D37" s="10" t="s">
+      <c r="E38" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G38" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="E37" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="F37" s="3" t="s">
+      <c r="H38" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="I38" s="24"/>
+      <c r="J38" s="26">
+        <v>27</v>
+      </c>
+      <c r="K38" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="G37" s="5" t="s">
+    </row>
+    <row r="39" spans="1:11" ht="15">
+      <c r="A39" s="9">
+        <v>33</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="9">
+        <v>1</v>
+      </c>
+      <c r="D39" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="H37" s="25" t="s">
+      <c r="E39" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="H39" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="I39" s="24"/>
+      <c r="J39" s="26">
+        <v>8.68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="15">
+      <c r="A40" s="9">
+        <v>34</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C40" s="9">
+        <v>1</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="E40" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="H40" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="I40" s="24"/>
+      <c r="J40" s="26">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="15">
+      <c r="A41" s="9">
+        <v>35</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C41" s="9">
+        <v>1</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="E41" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="H41" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="I41" s="24"/>
+      <c r="J41" s="26">
+        <v>12.07</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="15">
+      <c r="A42" s="9">
+        <v>36</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C42" s="9">
+        <v>1</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="E42" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="H42" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="I42" s="24"/>
+      <c r="J42" s="26">
+        <v>14.81</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="15">
+      <c r="A43" s="7">
+        <v>37</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C43" s="7">
+        <v>2</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E43" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="H43" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I37" s="25"/>
-      <c r="J37" s="28">
-        <v>27</v>
-      </c>
-      <c r="K37" s="6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="15">
-      <c r="A38" s="7">
-        <v>32</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" s="7">
-        <v>1</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="E38" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I38" s="2"/>
-      <c r="J38" s="28">
-        <v>8.68</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="15">
-      <c r="A39" s="7">
-        <v>33</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="C39" s="7">
-        <v>1</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="E39" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I39" s="2"/>
-      <c r="J39" s="28">
-        <v>5.8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="15">
-      <c r="A40" s="7">
-        <v>34</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="C40" s="7">
-        <v>1</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="E40" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I40" s="2"/>
-      <c r="J40" s="28">
-        <v>12.07</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="15">
-      <c r="A41" s="7">
-        <v>35</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="C41" s="7">
-        <v>1</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="E41" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I41" s="2"/>
-      <c r="J41" s="28">
-        <v>14.81</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="15">
-      <c r="A42" s="7">
-        <v>36</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="C42" s="7">
-        <v>2</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="E42" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I42" s="2"/>
-      <c r="J42" s="28">
+      <c r="I43" s="2"/>
+      <c r="J43" s="26">
         <v>1.2</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="15">
-      <c r="A43"/>
-      <c r="B43"/>
-      <c r="C43"/>
-      <c r="D43"/>
-      <c r="E43"/>
-      <c r="F43"/>
-      <c r="G43"/>
-      <c r="H43"/>
-      <c r="I43"/>
-      <c r="J43" s="29">
-        <f>SUM(J7:J42)</f>
+    <row r="44" spans="1:11" ht="15">
+      <c r="A44"/>
+      <c r="B44"/>
+      <c r="C44"/>
+      <c r="D44"/>
+      <c r="E44"/>
+      <c r="F44"/>
+      <c r="G44"/>
+      <c r="H44"/>
+      <c r="I44"/>
+      <c r="J44" s="27">
+        <f>SUM(J7:J43)</f>
         <v>100.37000000000002</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
-      <c r="C45" s="6">
-        <f>SUM(C8:C18)+C23+SUM(C29:C42)</f>
-        <v>52</v>
-      </c>
-    </row>
     <row r="46" spans="1:11">
-      <c r="B46" s="11" t="s">
-        <v>14</v>
+      <c r="C46" s="6">
+        <f>SUM(C9:C18)+SUM(C30:C43)</f>
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:11">
       <c r="B47" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="B48" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="I47" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="J47" s="6">
+      <c r="I48" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="J48" s="6">
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="9:9">
-      <c r="I52" s="6">
+    <row r="53" spans="9:9">
+      <c r="I53" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2519,20 +2570,20 @@
     <hyperlink ref="E8" r:id="rId12" xr:uid="{6529A621-F207-49DB-99B8-C08BAE8515A7}"/>
     <hyperlink ref="E23" r:id="rId13" display="https://www.digikey.com/short/p73tqd" xr:uid="{564B3E87-0F3F-45AE-A34C-17412A051311}"/>
     <hyperlink ref="E24" r:id="rId14" display="https://www.digikey.com/short/p73t84" xr:uid="{7F9A94E1-B343-4420-99EF-9F4771B40056}"/>
-    <hyperlink ref="E29" r:id="rId15" xr:uid="{E8A05015-6CA8-4358-B972-0EC020408D4D}"/>
-    <hyperlink ref="E30" r:id="rId16" xr:uid="{CDB791AF-5107-4137-A32C-48E6C6244269}"/>
-    <hyperlink ref="E31" r:id="rId17" xr:uid="{0B075077-63D5-48E2-9FD5-23F1ACAAC877}"/>
-    <hyperlink ref="E32" r:id="rId18" xr:uid="{053640CF-DB1E-45BF-929E-4A49BEAD77FC}"/>
-    <hyperlink ref="E33" r:id="rId19" xr:uid="{9EB0C526-B4A1-4D20-8B90-476E88C2FF27}"/>
-    <hyperlink ref="E34" r:id="rId20" xr:uid="{3A7E2E3E-3D7B-4E35-A306-06097C2A18C9}"/>
-    <hyperlink ref="E35" r:id="rId21" xr:uid="{3ED74AEA-C7DF-450E-970B-BA9CE3EEA0DB}"/>
-    <hyperlink ref="E36" r:id="rId22" xr:uid="{84237E79-86B8-431C-925A-404562310930}"/>
-    <hyperlink ref="E37" r:id="rId23" xr:uid="{DFA205F5-756C-467E-9D9B-DE798CF28530}"/>
-    <hyperlink ref="E38" r:id="rId24" xr:uid="{7C5E7F47-CB35-4129-A9BB-39343AA7B2A9}"/>
-    <hyperlink ref="E39" r:id="rId25" xr:uid="{7016E381-20CD-49F2-B1CE-456A99CD1BFF}"/>
-    <hyperlink ref="E40" r:id="rId26" xr:uid="{1000E841-7568-459D-AC9B-C3299732D613}"/>
-    <hyperlink ref="E41" r:id="rId27" xr:uid="{3130731F-1FEB-4AF0-9DC9-F3AE77A0D77D}"/>
-    <hyperlink ref="E42" r:id="rId28" xr:uid="{28CCE6B2-BB0B-4211-A5C4-745151968802}"/>
+    <hyperlink ref="E30" r:id="rId15" xr:uid="{E8A05015-6CA8-4358-B972-0EC020408D4D}"/>
+    <hyperlink ref="E31" r:id="rId16" xr:uid="{CDB791AF-5107-4137-A32C-48E6C6244269}"/>
+    <hyperlink ref="E32" r:id="rId17" xr:uid="{0B075077-63D5-48E2-9FD5-23F1ACAAC877}"/>
+    <hyperlink ref="E33" r:id="rId18" xr:uid="{053640CF-DB1E-45BF-929E-4A49BEAD77FC}"/>
+    <hyperlink ref="E34" r:id="rId19" xr:uid="{9EB0C526-B4A1-4D20-8B90-476E88C2FF27}"/>
+    <hyperlink ref="E35" r:id="rId20" xr:uid="{3A7E2E3E-3D7B-4E35-A306-06097C2A18C9}"/>
+    <hyperlink ref="E36" r:id="rId21" xr:uid="{3ED74AEA-C7DF-450E-970B-BA9CE3EEA0DB}"/>
+    <hyperlink ref="E37" r:id="rId22" xr:uid="{84237E79-86B8-431C-925A-404562310930}"/>
+    <hyperlink ref="E38" r:id="rId23" xr:uid="{DFA205F5-756C-467E-9D9B-DE798CF28530}"/>
+    <hyperlink ref="E39" r:id="rId24" xr:uid="{7C5E7F47-CB35-4129-A9BB-39343AA7B2A9}"/>
+    <hyperlink ref="E40" r:id="rId25" xr:uid="{7016E381-20CD-49F2-B1CE-456A99CD1BFF}"/>
+    <hyperlink ref="E41" r:id="rId26" xr:uid="{1000E841-7568-459D-AC9B-C3299732D613}"/>
+    <hyperlink ref="E42" r:id="rId27" xr:uid="{3130731F-1FEB-4AF0-9DC9-F3AE77A0D77D}"/>
+    <hyperlink ref="E43" r:id="rId28" xr:uid="{28CCE6B2-BB0B-4211-A5C4-745151968802}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId29"/>
@@ -2544,7 +2595,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
@@ -2555,43 +2606,43 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B2">
         <v>72</v>
       </c>
       <c r="C2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B3">
         <v>50</v>
       </c>
       <c r="C3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B4">
         <v>130</v>
       </c>
       <c r="C4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:3">
